--- a/Borang_JMB.xlsx
+++ b/Borang_JMB.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MustakhimRehan/rails_projects/kota-fin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39711773-F1A9-6F40-82ED-4B402261C734}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5239224-F412-6146-8231-9E65CD838E0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BORANG" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="23">
   <si>
     <t/>
   </si>
@@ -70,14 +70,42 @@
 Email;</t>
   </si>
   <si>
-    <t>Plate No 1;Brand 1;Type 1;,
-WYR8987;Honda;Sedan;,</t>
-  </si>
-  <si>
     <t>TENANT</t>
   </si>
   <si>
     <t>OWNER</t>
+  </si>
+  <si>
+    <t>Mohd Mustakhim Noor Rehan;
+29/08/1987;
+0134451169;
+mustrivium@yahoo.com;</t>
+  </si>
+  <si>
+    <t>Mohd Mustakhim Noor Rehan1;
+29/08/1987;
+0134451169;
+mustrivium@yahoo.com;</t>
+  </si>
+  <si>
+    <t>Mohd Mustakhim Noor Rehan3;
+29/08/1987;
+0134451169;
+mustrivium@yahoo.com;</t>
+  </si>
+  <si>
+    <t>Plate No 1,Brand 1,Type 1;
+WYR8987,Honda,Sedan;</t>
+  </si>
+  <si>
+    <t>WYR8987,Honda,Sedan;
+WYR8987,Honda,Sedan;</t>
+  </si>
+  <si>
+    <t>Mohd Mustakhim Noor Rehan2;
+29/09/1990;
+0134451169;
+mustrivium@yahoo.com;</t>
   </si>
 </sst>
 </file>
@@ -521,7 +549,7 @@
   <dimension ref="A1:X144"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -531,9 +559,9 @@
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
-    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="8" width="44.1640625" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -604,10 +632,10 @@
         <v>14</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="60" x14ac:dyDescent="0.2">
@@ -627,19 +655,19 @@
         <v>13</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="X5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="60" x14ac:dyDescent="0.15">
@@ -659,19 +687,19 @@
         <v>13</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="X6" t="s">
         <v>16</v>
-      </c>
-      <c r="X6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.15">
@@ -684,9 +712,7 @@
       <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
         <v>0</v>
       </c>
@@ -711,9 +737,7 @@
       <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
         <v>0</v>
       </c>
@@ -738,9 +762,7 @@
       <c r="C9" s="9">
         <v>5</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
         <v>0</v>
       </c>
@@ -765,9 +787,7 @@
       <c r="C10" s="9">
         <v>6</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
         <v>0</v>
       </c>
@@ -792,9 +812,7 @@
       <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
         <v>0</v>
       </c>
@@ -819,9 +837,7 @@
       <c r="C12" s="9">
         <v>8</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
         <v>0</v>
       </c>
@@ -846,9 +862,7 @@
       <c r="C13" s="9">
         <v>9</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
         <v>0</v>
       </c>
@@ -873,9 +887,7 @@
       <c r="C14" s="9">
         <v>10</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
         <v>0</v>
       </c>
@@ -900,9 +912,7 @@
       <c r="C15" s="9">
         <v>11</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
         <v>0</v>
       </c>
@@ -927,9 +937,7 @@
       <c r="C16" s="9">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
         <v>0</v>
       </c>
@@ -954,9 +962,7 @@
       <c r="C17" s="9">
         <v>13</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
         <v>0</v>
       </c>
@@ -981,9 +987,7 @@
       <c r="C18" s="9">
         <v>14</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
         <v>0</v>
       </c>
@@ -1008,9 +1012,7 @@
       <c r="C19" s="9">
         <v>15</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
         <v>0</v>
       </c>
@@ -1035,9 +1037,7 @@
       <c r="C20" s="9">
         <v>16</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
         <v>0</v>
       </c>
@@ -1062,9 +1062,7 @@
       <c r="C21" s="9">
         <v>17</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
         <v>0</v>
       </c>
@@ -1089,9 +1087,7 @@
       <c r="C22" s="9">
         <v>18</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
         <v>0</v>
       </c>
@@ -1116,9 +1112,7 @@
       <c r="C23" s="9">
         <v>19</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
         <v>0</v>
       </c>
@@ -1143,9 +1137,7 @@
       <c r="C24" s="9">
         <v>20</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
         <v>0</v>
       </c>
@@ -1175,9 +1167,7 @@
       <c r="C26" s="9">
         <v>22</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
         <v>0</v>
       </c>
@@ -1196,9 +1186,7 @@
       <c r="C27" s="9">
         <v>23</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
         <v>0</v>
       </c>
@@ -1217,9 +1205,7 @@
       <c r="C28" s="9">
         <v>24</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
         <v>0</v>
       </c>
@@ -1238,9 +1224,7 @@
       <c r="C29" s="9">
         <v>25</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
         <v>0</v>
       </c>
@@ -1259,9 +1243,7 @@
       <c r="C30" s="9">
         <v>26</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
         <v>0</v>
       </c>
@@ -1280,9 +1262,7 @@
       <c r="C31" s="9">
         <v>27</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
         <v>0</v>
       </c>
@@ -1301,9 +1281,7 @@
       <c r="C32" s="9">
         <v>28</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
         <v>0</v>
       </c>
@@ -1322,9 +1300,7 @@
       <c r="C33" s="9">
         <v>29</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
         <v>0</v>
       </c>
@@ -1343,9 +1319,7 @@
       <c r="C34" s="9">
         <v>30</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
         <v>0</v>
       </c>
@@ -1364,9 +1338,7 @@
       <c r="C35" s="9">
         <v>31</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
         <v>0</v>
       </c>
@@ -1385,9 +1357,7 @@
       <c r="C36" s="9">
         <v>32</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
         <v>0</v>
       </c>
@@ -1406,9 +1376,7 @@
       <c r="C37" s="9">
         <v>33</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
         <v>0</v>
       </c>
@@ -1427,9 +1395,7 @@
       <c r="C38" s="9">
         <v>34</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
         <v>0</v>
       </c>
@@ -1448,9 +1414,7 @@
       <c r="C39" s="9">
         <v>35</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
         <v>0</v>
       </c>
@@ -1469,9 +1433,7 @@
       <c r="C40" s="9">
         <v>36</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
         <v>0</v>
       </c>
@@ -1490,9 +1452,7 @@
       <c r="C41" s="9">
         <v>37</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
         <v>0</v>
       </c>
@@ -1511,9 +1471,7 @@
       <c r="C42" s="9">
         <v>38</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
         <v>0</v>
       </c>
@@ -1532,9 +1490,7 @@
       <c r="C43" s="9">
         <v>39</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
         <v>0</v>
       </c>
@@ -1553,9 +1509,7 @@
       <c r="C44" s="9">
         <v>40</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
         <v>0</v>
       </c>
@@ -1585,9 +1539,7 @@
       <c r="C46" s="9">
         <v>42</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
         <v>0</v>
       </c>
@@ -1606,9 +1558,7 @@
       <c r="C47" s="9">
         <v>43</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
         <v>0</v>
       </c>
@@ -1627,9 +1577,7 @@
       <c r="C48" s="9">
         <v>44</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
         <v>0</v>
       </c>
@@ -1648,9 +1596,7 @@
       <c r="C49" s="9">
         <v>45</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
         <v>0</v>
       </c>
@@ -1669,9 +1615,7 @@
       <c r="C50" s="9">
         <v>46</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
         <v>0</v>
       </c>
@@ -1690,9 +1634,7 @@
       <c r="C51" s="9">
         <v>47</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
         <v>0</v>
       </c>
@@ -1711,9 +1653,7 @@
       <c r="C52" s="9">
         <v>48</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
         <v>0</v>
       </c>
@@ -1732,9 +1672,7 @@
       <c r="C53" s="9">
         <v>49</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
         <v>0</v>
       </c>
@@ -1753,9 +1691,7 @@
       <c r="C54" s="9">
         <v>50</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
         <v>0</v>
       </c>
@@ -1774,9 +1710,7 @@
       <c r="C55" s="9">
         <v>51</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
         <v>0</v>
       </c>
@@ -1795,9 +1729,7 @@
       <c r="C56" s="9">
         <v>52</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
         <v>0</v>
       </c>
@@ -1816,9 +1748,7 @@
       <c r="C57" s="9">
         <v>53</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
         <v>0</v>
       </c>
@@ -1837,9 +1767,7 @@
       <c r="C58" s="9">
         <v>54</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
         <v>0</v>
       </c>
@@ -1858,9 +1786,7 @@
       <c r="C59" s="9">
         <v>55</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
         <v>0</v>
       </c>
@@ -1879,9 +1805,7 @@
       <c r="C60" s="9">
         <v>56</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
         <v>0</v>
       </c>
@@ -1900,9 +1824,7 @@
       <c r="C61" s="9">
         <v>57</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
         <v>0</v>
       </c>
@@ -1921,9 +1843,7 @@
       <c r="C62" s="9">
         <v>58</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
         <v>0</v>
       </c>
@@ -1942,9 +1862,7 @@
       <c r="C63" s="9">
         <v>59</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
         <v>0</v>
       </c>
@@ -1963,9 +1881,7 @@
       <c r="C64" s="9">
         <v>60</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D64" s="9"/>
       <c r="E64" s="9" t="s">
         <v>0</v>
       </c>
@@ -1995,9 +1911,7 @@
       <c r="C66" s="9">
         <v>62</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
         <v>0</v>
       </c>
@@ -2016,9 +1930,7 @@
       <c r="C67" s="9">
         <v>63</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
         <v>0</v>
       </c>
@@ -2037,9 +1949,7 @@
       <c r="C68" s="9">
         <v>64</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
         <v>0</v>
       </c>
@@ -2058,9 +1968,7 @@
       <c r="C69" s="9">
         <v>65</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
         <v>0</v>
       </c>
@@ -2079,9 +1987,7 @@
       <c r="C70" s="9">
         <v>66</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
         <v>0</v>
       </c>
@@ -2100,9 +2006,7 @@
       <c r="C71" s="9">
         <v>67</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
         <v>0</v>
       </c>
@@ -2121,9 +2025,7 @@
       <c r="C72" s="9">
         <v>68</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
         <v>0</v>
       </c>
@@ -2142,9 +2044,7 @@
       <c r="C73" s="9">
         <v>69</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
         <v>0</v>
       </c>
@@ -2163,9 +2063,7 @@
       <c r="C74" s="9">
         <v>70</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
         <v>0</v>
       </c>
@@ -2184,9 +2082,7 @@
       <c r="C75" s="9">
         <v>71</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
         <v>0</v>
       </c>
@@ -2205,9 +2101,7 @@
       <c r="C76" s="9">
         <v>72</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
         <v>0</v>
       </c>
@@ -2226,9 +2120,7 @@
       <c r="C77" s="9">
         <v>73</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
         <v>0</v>
       </c>
@@ -2247,9 +2139,7 @@
       <c r="C78" s="9">
         <v>74</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
         <v>0</v>
       </c>
@@ -2268,9 +2158,7 @@
       <c r="C79" s="9">
         <v>75</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
         <v>0</v>
       </c>
@@ -2289,9 +2177,7 @@
       <c r="C80" s="9">
         <v>76</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
         <v>0</v>
       </c>
@@ -2310,9 +2196,7 @@
       <c r="C81" s="9">
         <v>77</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
         <v>0</v>
       </c>
@@ -2331,9 +2215,7 @@
       <c r="C82" s="9">
         <v>78</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
         <v>0</v>
       </c>
@@ -2352,9 +2234,7 @@
       <c r="C83" s="9">
         <v>79</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
         <v>0</v>
       </c>
@@ -2373,9 +2253,7 @@
       <c r="C84" s="9">
         <v>80</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
         <v>0</v>
       </c>
@@ -2405,9 +2283,7 @@
       <c r="C86" s="9">
         <v>82</v>
       </c>
-      <c r="D86" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
         <v>0</v>
       </c>
@@ -2426,9 +2302,7 @@
       <c r="C87" s="9">
         <v>83</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
         <v>0</v>
       </c>
@@ -2447,9 +2321,7 @@
       <c r="C88" s="9">
         <v>84</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
         <v>0</v>
       </c>
@@ -2468,9 +2340,7 @@
       <c r="C89" s="9">
         <v>85</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
         <v>0</v>
       </c>
@@ -2489,9 +2359,7 @@
       <c r="C90" s="9">
         <v>86</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
         <v>0</v>
       </c>
@@ -2510,9 +2378,7 @@
       <c r="C91" s="9">
         <v>87</v>
       </c>
-      <c r="D91" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D91" s="9"/>
       <c r="E91" s="9" t="s">
         <v>0</v>
       </c>
@@ -2531,9 +2397,7 @@
       <c r="C92" s="9">
         <v>88</v>
       </c>
-      <c r="D92" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
         <v>0</v>
       </c>
@@ -2552,9 +2416,7 @@
       <c r="C93" s="9">
         <v>89</v>
       </c>
-      <c r="D93" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D93" s="9"/>
       <c r="E93" s="9" t="s">
         <v>0</v>
       </c>
@@ -2573,9 +2435,7 @@
       <c r="C94" s="9">
         <v>90</v>
       </c>
-      <c r="D94" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
         <v>0</v>
       </c>
@@ -2594,9 +2454,7 @@
       <c r="C95" s="9">
         <v>91</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D95" s="9"/>
       <c r="E95" s="9" t="s">
         <v>0</v>
       </c>
@@ -2615,9 +2473,7 @@
       <c r="C96" s="9">
         <v>92</v>
       </c>
-      <c r="D96" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
         <v>0</v>
       </c>
@@ -2636,9 +2492,7 @@
       <c r="C97" s="9">
         <v>93</v>
       </c>
-      <c r="D97" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D97" s="9"/>
       <c r="E97" s="9" t="s">
         <v>0</v>
       </c>
@@ -2657,9 +2511,7 @@
       <c r="C98" s="9">
         <v>94</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
         <v>0</v>
       </c>
@@ -2678,9 +2530,7 @@
       <c r="C99" s="9">
         <v>95</v>
       </c>
-      <c r="D99" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
         <v>0</v>
       </c>
@@ -2699,9 +2549,7 @@
       <c r="C100" s="9">
         <v>96</v>
       </c>
-      <c r="D100" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
         <v>0</v>
       </c>
@@ -2720,9 +2568,7 @@
       <c r="C101" s="9">
         <v>97</v>
       </c>
-      <c r="D101" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
         <v>0</v>
       </c>
@@ -2741,9 +2587,7 @@
       <c r="C102" s="9">
         <v>98</v>
       </c>
-      <c r="D102" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
         <v>0</v>
       </c>
@@ -2762,9 +2606,7 @@
       <c r="C103" s="9">
         <v>99</v>
       </c>
-      <c r="D103" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
         <v>0</v>
       </c>
@@ -2783,9 +2625,7 @@
       <c r="C104" s="9">
         <v>100</v>
       </c>
-      <c r="D104" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
         <v>0</v>
       </c>
@@ -2815,9 +2655,7 @@
       <c r="C106" s="9">
         <v>102</v>
       </c>
-      <c r="D106" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
         <v>0</v>
       </c>
@@ -2836,9 +2674,7 @@
       <c r="C107" s="9">
         <v>103</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
         <v>0</v>
       </c>
@@ -2857,9 +2693,7 @@
       <c r="C108" s="9">
         <v>104</v>
       </c>
-      <c r="D108" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
         <v>0</v>
       </c>
@@ -2878,9 +2712,7 @@
       <c r="C109" s="9">
         <v>105</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
         <v>0</v>
       </c>
@@ -2899,9 +2731,7 @@
       <c r="C110" s="9">
         <v>106</v>
       </c>
-      <c r="D110" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
         <v>0</v>
       </c>
@@ -2920,9 +2750,7 @@
       <c r="C111" s="9">
         <v>107</v>
       </c>
-      <c r="D111" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
         <v>0</v>
       </c>
@@ -2941,9 +2769,7 @@
       <c r="C112" s="9">
         <v>108</v>
       </c>
-      <c r="D112" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
         <v>0</v>
       </c>
@@ -2962,9 +2788,7 @@
       <c r="C113" s="9">
         <v>109</v>
       </c>
-      <c r="D113" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
         <v>0</v>
       </c>
@@ -2983,9 +2807,7 @@
       <c r="C114" s="9">
         <v>110</v>
       </c>
-      <c r="D114" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
         <v>0</v>
       </c>
@@ -3004,9 +2826,7 @@
       <c r="C115" s="9">
         <v>111</v>
       </c>
-      <c r="D115" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D115" s="9"/>
       <c r="E115" s="9" t="s">
         <v>0</v>
       </c>
@@ -3025,9 +2845,7 @@
       <c r="C116" s="9">
         <v>112</v>
       </c>
-      <c r="D116" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
         <v>0</v>
       </c>
@@ -3046,9 +2864,7 @@
       <c r="C117" s="9">
         <v>113</v>
       </c>
-      <c r="D117" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
         <v>0</v>
       </c>
@@ -3067,9 +2883,7 @@
       <c r="C118" s="9">
         <v>114</v>
       </c>
-      <c r="D118" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
         <v>0</v>
       </c>
@@ -3088,9 +2902,7 @@
       <c r="C119" s="9">
         <v>115</v>
       </c>
-      <c r="D119" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
         <v>0</v>
       </c>
@@ -3109,9 +2921,7 @@
       <c r="C120" s="9">
         <v>116</v>
       </c>
-      <c r="D120" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
         <v>0</v>
       </c>
@@ -3130,9 +2940,7 @@
       <c r="C121" s="9">
         <v>117</v>
       </c>
-      <c r="D121" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
         <v>0</v>
       </c>
@@ -3151,9 +2959,7 @@
       <c r="C122" s="9">
         <v>118</v>
       </c>
-      <c r="D122" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
         <v>0</v>
       </c>
@@ -3172,9 +2978,7 @@
       <c r="C123" s="9">
         <v>119</v>
       </c>
-      <c r="D123" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
         <v>0</v>
       </c>
@@ -3193,9 +2997,7 @@
       <c r="C124" s="9">
         <v>120</v>
       </c>
-      <c r="D124" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
         <v>0</v>
       </c>
@@ -3225,9 +3027,7 @@
       <c r="C126" s="9">
         <v>122</v>
       </c>
-      <c r="D126" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
         <v>0</v>
       </c>
@@ -3246,9 +3046,7 @@
       <c r="C127" s="9">
         <v>123</v>
       </c>
-      <c r="D127" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
         <v>0</v>
       </c>
@@ -3267,9 +3065,7 @@
       <c r="C128" s="9">
         <v>124</v>
       </c>
-      <c r="D128" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
         <v>0</v>
       </c>
@@ -3288,9 +3084,7 @@
       <c r="C129" s="9">
         <v>125</v>
       </c>
-      <c r="D129" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D129" s="9"/>
       <c r="E129" s="9" t="s">
         <v>0</v>
       </c>
@@ -3309,9 +3103,7 @@
       <c r="C130" s="9">
         <v>126</v>
       </c>
-      <c r="D130" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
         <v>0</v>
       </c>
@@ -3330,9 +3122,7 @@
       <c r="C131" s="9">
         <v>127</v>
       </c>
-      <c r="D131" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
         <v>0</v>
       </c>
@@ -3351,9 +3141,7 @@
       <c r="C132" s="9">
         <v>128</v>
       </c>
-      <c r="D132" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D132" s="9"/>
       <c r="E132" s="9" t="s">
         <v>0</v>
       </c>
@@ -3372,9 +3160,7 @@
       <c r="C133" s="9">
         <v>129</v>
       </c>
-      <c r="D133" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
         <v>0</v>
       </c>
@@ -3393,9 +3179,7 @@
       <c r="C134" s="9">
         <v>130</v>
       </c>
-      <c r="D134" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D134" s="9"/>
       <c r="E134" s="9" t="s">
         <v>0</v>
       </c>
@@ -3414,9 +3198,7 @@
       <c r="C135" s="9">
         <v>131</v>
       </c>
-      <c r="D135" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
         <v>0</v>
       </c>
@@ -3435,9 +3217,7 @@
       <c r="C136" s="9">
         <v>132</v>
       </c>
-      <c r="D136" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
         <v>0</v>
       </c>
@@ -3456,9 +3236,7 @@
       <c r="C137" s="9">
         <v>133</v>
       </c>
-      <c r="D137" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D137" s="9"/>
       <c r="E137" s="9" t="s">
         <v>0</v>
       </c>
@@ -3477,9 +3255,7 @@
       <c r="C138" s="9">
         <v>134</v>
       </c>
-      <c r="D138" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
         <v>0</v>
       </c>
@@ -3498,9 +3274,7 @@
       <c r="C139" s="9">
         <v>135</v>
       </c>
-      <c r="D139" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
         <v>0</v>
       </c>
@@ -3519,9 +3293,7 @@
       <c r="C140" s="9">
         <v>136</v>
       </c>
-      <c r="D140" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
         <v>0</v>
       </c>
@@ -3540,9 +3312,7 @@
       <c r="C141" s="9">
         <v>137</v>
       </c>
-      <c r="D141" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
         <v>0</v>
       </c>
@@ -3561,9 +3331,7 @@
       <c r="C142" s="9">
         <v>138</v>
       </c>
-      <c r="D142" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
         <v>0</v>
       </c>
@@ -3582,9 +3350,7 @@
       <c r="C143" s="9">
         <v>139</v>
       </c>
-      <c r="D143" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D143" s="9"/>
       <c r="E143" s="9" t="s">
         <v>0</v>
       </c>
@@ -3603,9 +3369,7 @@
       <c r="C144" s="9">
         <v>140</v>
       </c>
-      <c r="D144" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
         <v>0</v>
       </c>
